--- a/data/trans_dic/P43-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P43-Provincia-trans_dic.xlsx
@@ -601,7 +601,7 @@
         <v>0.504477440747039</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5828365772471649</v>
+        <v>0.582836577247165</v>
       </c>
     </row>
     <row r="5">
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2890369593962216</v>
+        <v>0.2876529973534091</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4543115530487614</v>
+        <v>0.4550980397871849</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4437918554039316</v>
+        <v>0.444360582725194</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5167566200914073</v>
+        <v>0.527238351818977</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4080740043554498</v>
+        <v>0.4132081039876515</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5809391948288656</v>
+        <v>0.5765562961548627</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5650570424943197</v>
+        <v>0.568819005152804</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6394098868424551</v>
+        <v>0.642627556358134</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>0.5104405245343016</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5358368182751603</v>
+        <v>0.5358368182751604</v>
       </c>
     </row>
     <row r="8">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.322192739313947</v>
+        <v>0.3236568704687778</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.372551019157866</v>
+        <v>0.3739713921571462</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4615335361105719</v>
+        <v>0.4677507933802825</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4937289064562158</v>
+        <v>0.4880751519264128</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.408107572431509</v>
+        <v>0.4053520564343153</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4648882815231954</v>
+        <v>0.4620447842115494</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5532213351886353</v>
+        <v>0.5527127255377828</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5822580448848943</v>
+        <v>0.5802084565139713</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3567583915212427</v>
+        <v>0.3560806241420116</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4098809799512489</v>
+        <v>0.4118734636959263</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5111809667787789</v>
+        <v>0.512760858314375</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4812918303063506</v>
+        <v>0.4800073798592752</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4619253977554439</v>
+        <v>0.4611651779756739</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5261141970647291</v>
+        <v>0.5207055618327348</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6215897480730077</v>
+        <v>0.625029598553145</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5890139183581579</v>
+        <v>0.5897015970890601</v>
       </c>
     </row>
     <row r="13">
@@ -793,7 +793,7 @@
         <v>0.5283599380234471</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5188222008722091</v>
+        <v>0.5188222008722092</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3668048264030635</v>
+        <v>0.3653900393015663</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4340221970631166</v>
+        <v>0.4372405041669543</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.472949219696613</v>
+        <v>0.4719029173748281</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.46440543552368</v>
+        <v>0.4570711073876101</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4598254501817257</v>
+        <v>0.4650131466647214</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.530745011877352</v>
+        <v>0.5388308304118516</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5811949115932517</v>
+        <v>0.5785017781295941</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5724110243367283</v>
+        <v>0.5736150261831253</v>
       </c>
     </row>
     <row r="16">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2380190011720826</v>
+        <v>0.2369984745541122</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4120832082170495</v>
+        <v>0.4096337703193406</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4614219988337652</v>
+        <v>0.4589536120084023</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.644919841120566</v>
+        <v>0.65126487210228</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3694400771492586</v>
+        <v>0.3659194477970588</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5446313329213603</v>
+        <v>0.5443215331511199</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5901206327006097</v>
+        <v>0.5966262815568961</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7648163153847412</v>
+        <v>0.7634568188348114</v>
       </c>
     </row>
     <row r="19">
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3178566105667761</v>
+        <v>0.3239264850021452</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4244022817292822</v>
+        <v>0.4239743778025925</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4415342488104514</v>
+        <v>0.4394653421460506</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.481413552848805</v>
+        <v>0.4789644798188226</v>
       </c>
     </row>
     <row r="21">
@@ -952,16 +952,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4363511669505987</v>
+        <v>0.4369422978535505</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5421764330342261</v>
+        <v>0.5421738081123215</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5611520899759744</v>
+        <v>0.5614616695965621</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5895788926788552</v>
+        <v>0.5898878312178124</v>
       </c>
     </row>
     <row r="22">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3953845912833605</v>
+        <v>0.3947060759459396</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4683764628611362</v>
+        <v>0.4731818278817589</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.388772209242973</v>
+        <v>0.3850957308990572</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5702198232486317</v>
+        <v>0.5696649662309518</v>
       </c>
     </row>
     <row r="24">
@@ -1016,16 +1016,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4755124153889127</v>
+        <v>0.4743109654120002</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5455390482072772</v>
+        <v>0.554014161234087</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4678282246630129</v>
+        <v>0.464805002370919</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.651936692068133</v>
+        <v>0.6513556272928479</v>
       </c>
     </row>
     <row r="25">
@@ -1049,7 +1049,7 @@
         <v>0.5049101029428678</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.3716229431002355</v>
+        <v>0.3716229431002356</v>
       </c>
     </row>
     <row r="26">
@@ -1060,16 +1060,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3089129249849265</v>
+        <v>0.3061901355645236</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4116029096397998</v>
+        <v>0.4123546871827504</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.463985685667144</v>
+        <v>0.467342427951725</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3369164654763032</v>
+        <v>0.3385193693323906</v>
       </c>
     </row>
     <row r="27">
@@ -1080,16 +1080,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3789184040713875</v>
+        <v>0.3776840717220843</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4832716200091523</v>
+        <v>0.4821642316151012</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5380705941935895</v>
+        <v>0.5402606045730803</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4032007139186249</v>
+        <v>0.4048896961136431</v>
       </c>
     </row>
     <row r="28">
@@ -1124,16 +1124,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3622715886032239</v>
+        <v>0.3603562959309313</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4537584439578993</v>
+        <v>0.454294398288339</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.4810924288000681</v>
+        <v>0.4822212055378957</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.5065125460456329</v>
+        <v>0.507123797453027</v>
       </c>
     </row>
     <row r="30">
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3974197375280143</v>
+        <v>0.3941554257213243</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4884791313500955</v>
+        <v>0.4893877316869233</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5168945766816806</v>
+        <v>0.5162482111536849</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5404197333075912</v>
+        <v>0.5399890264721099</v>
       </c>
     </row>
     <row r="31">
@@ -1306,16 +1306,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>75392</v>
+        <v>75031</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>128071</v>
+        <v>128293</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>127041</v>
+        <v>127204</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>105291</v>
+        <v>107427</v>
       </c>
     </row>
     <row r="7">
@@ -1326,16 +1326,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>106441</v>
+        <v>107780</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>163767</v>
+        <v>162532</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>161754</v>
+        <v>162831</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>130282</v>
+        <v>130938</v>
       </c>
     </row>
     <row r="8">
@@ -1390,16 +1390,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>161145</v>
+        <v>161878</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>194745</v>
+        <v>195487</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>240672</v>
+        <v>243914</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>212611</v>
+        <v>210176</v>
       </c>
     </row>
     <row r="11">
@@ -1410,16 +1410,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>204116</v>
+        <v>202738</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>243012</v>
+        <v>241526</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>288483</v>
+        <v>288218</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>250733</v>
+        <v>249851</v>
       </c>
     </row>
     <row r="12">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>118990</v>
+        <v>118764</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>139373</v>
+        <v>140051</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>169512</v>
+        <v>170036</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>123321</v>
+        <v>122992</v>
       </c>
     </row>
     <row r="15">
@@ -1494,16 +1494,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>154066</v>
+        <v>153812</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>178897</v>
+        <v>177058</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>206125</v>
+        <v>207265</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>150922</v>
+        <v>151099</v>
       </c>
     </row>
     <row r="16">
@@ -1558,16 +1558,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>136252</v>
+        <v>135726</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>167956</v>
+        <v>169202</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>182595</v>
+        <v>182191</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>149235</v>
+        <v>146878</v>
       </c>
     </row>
     <row r="19">
@@ -1578,16 +1578,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>170805</v>
+        <v>172732</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>205386</v>
+        <v>208515</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>224387</v>
+        <v>223347</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>183942</v>
+        <v>184329</v>
       </c>
     </row>
     <row r="20">
@@ -1642,16 +1642,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>48828</v>
+        <v>48618</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>90490</v>
+        <v>89952</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>100460</v>
+        <v>99923</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>108419</v>
+        <v>109486</v>
       </c>
     </row>
     <row r="23">
@@ -1662,16 +1662,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>75788</v>
+        <v>75065</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>119596</v>
+        <v>119528</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>128480</v>
+        <v>129897</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>128576</v>
+        <v>128347</v>
       </c>
     </row>
     <row r="24">
@@ -1726,16 +1726,16 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>88111</v>
+        <v>89794</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>118846</v>
+        <v>118726</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>120590</v>
+        <v>120025</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>103712</v>
+        <v>103184</v>
       </c>
     </row>
     <row r="27">
@@ -1746,16 +1746,16 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>120958</v>
+        <v>121122</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>151826</v>
+        <v>151825</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>153259</v>
+        <v>153344</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>127014</v>
+        <v>127081</v>
       </c>
     </row>
     <row r="28">
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>250776</v>
+        <v>250345</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>323563</v>
+        <v>326883</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>264903</v>
+        <v>262398</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>306065</v>
+        <v>305768</v>
       </c>
     </row>
     <row r="31">
@@ -1830,16 +1830,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>301598</v>
+        <v>300836</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>376869</v>
+        <v>382724</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>318771</v>
+        <v>316711</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>349927</v>
+        <v>349615</v>
       </c>
     </row>
     <row r="32">
@@ -1894,16 +1894,16 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>239999</v>
+        <v>237884</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>335240</v>
+        <v>335852</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>381425</v>
+        <v>384185</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>225950</v>
+        <v>227025</v>
       </c>
     </row>
     <row r="35">
@@ -1914,16 +1914,16 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>294387</v>
+        <v>293428</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>393612</v>
+        <v>392710</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>442328</v>
+        <v>444128</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>270403</v>
+        <v>271536</v>
       </c>
     </row>
     <row r="36">
@@ -1978,16 +1978,16 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1217049</v>
+        <v>1210615</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1604743</v>
+        <v>1606638</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1693296</v>
+        <v>1697269</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1419697</v>
+        <v>1421410</v>
       </c>
     </row>
     <row r="39">
@@ -1998,16 +1998,16 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1335129</v>
+        <v>1324163</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1727535</v>
+        <v>1730748</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1819309</v>
+        <v>1817034</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1514735</v>
+        <v>1513528</v>
       </c>
     </row>
     <row r="40">
